--- a/data1.xlsx
+++ b/data1.xlsx
@@ -4861,7 +4861,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.125" defaultRowHeight="14.25"/>
